--- a/data/evaluation/evaluation_Center_Winter_Persimmons.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Persimmons.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2443.736263736263</v>
+        <v>2442.39010989011</v>
       </c>
       <c r="C3" t="n">
-        <v>11737856.41284892</v>
+        <v>11731266.989772</v>
       </c>
       <c r="D3" t="n">
-        <v>3426.055518062853</v>
+        <v>3425.093719852349</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1467668242085718</v>
+        <v>-0.1461230497825174</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2514.678683342415</v>
+        <v>2611.459084345689</v>
       </c>
       <c r="C4" t="n">
-        <v>11588303.76810939</v>
+        <v>12153443.23595314</v>
       </c>
       <c r="D4" t="n">
-        <v>3404.159774174736</v>
+        <v>3486.178887543371</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1321558079013516</v>
+        <v>-0.1873688868468961</v>
       </c>
     </row>
     <row r="5">
